--- a/server/excel/base(基础信息)_Proto.xlsx
+++ b/server/excel/base(基础信息)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsFbCompany(分包公司)" sheetId="3" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="CbhsVersion(版本信息)" sheetId="15" r:id="rId10"/>
     <sheet name="CbhsHt(合同)" sheetId="16" r:id="rId11"/>
     <sheet name="CbhsGlfyRule(管理费用上缴公式)" sheetId="17" r:id="rId12"/>
+    <sheet name="CbhsContacts(通讯录联系人)" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>属性名</t>
   </si>
@@ -406,6 +407,21 @@
   </si>
   <si>
     <t xml:space="preserve">必填|印花税及其他税金 </t>
+  </si>
+  <si>
+    <t>必填|姓名</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>必填|电话</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>职位</t>
   </si>
 </sst>
 </file>
@@ -413,9 +429,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -462,6 +478,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -470,7 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,17 +508,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,23 +537,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,6 +582,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,11 +598,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,36 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +642,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,25 +774,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,115 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,25 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,17 +862,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,21 +882,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,11 +903,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,25 +935,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,10 +967,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,137 +979,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1111,18 +1127,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1475,20 +1484,20 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="52.225" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="52.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,93 +1510,93 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1606,20 +1615,20 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="76.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1632,146 +1641,146 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="5" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="5" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1790,20 +1799,20 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="76.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="5" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1844,87 +1853,87 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1939,15 +1948,15 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
@@ -2120,6 +2129,163 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
+        <v>50</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7">
+        <v>50</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2136,20 +2302,20 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="44.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2162,90 +2328,90 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2264,20 +2430,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="45.8916666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="45.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="18.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" customFormat="1" ht="15.15" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2290,98 +2456,98 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2400,23 +2566,23 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.5583333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="50" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.89166666666667" style="9"/>
-    <col min="6" max="6" width="22.3333333333333" style="9" customWidth="1"/>
-    <col min="7" max="8" width="8.89166666666667" style="9"/>
-    <col min="9" max="9" width="10.4416666666667" style="9" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13" style="9" customWidth="1"/>
-    <col min="12" max="13" width="15.225" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.89166666666667" style="9"/>
+    <col min="1" max="1" width="17.4444444444444" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.5555555555556" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="5"/>
+    <col min="6" max="6" width="22.3333333333333" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.88888888888889" style="5"/>
+    <col min="9" max="9" width="10.4444444444444" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13" style="5" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="5" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2457,112 +2623,112 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:4">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:4">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:11">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:11">
+      <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:11">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:11">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:11">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="5" customFormat="1" spans="1:11">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:11">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="5" customFormat="1" spans="1:11">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:4">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2581,23 +2747,23 @@
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="47.6666666666667" style="9" customWidth="1"/>
-    <col min="3" max="3" width="50" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.89166666666667" style="9"/>
-    <col min="6" max="6" width="22.3333333333333" style="9" customWidth="1"/>
-    <col min="7" max="8" width="8.89166666666667" style="9"/>
-    <col min="9" max="9" width="10.4416666666667" style="9" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13" style="9" customWidth="1"/>
-    <col min="12" max="13" width="15.225" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.89166666666667" style="9"/>
+    <col min="1" max="1" width="17.4444444444444" style="5" customWidth="1"/>
+    <col min="2" max="2" width="47.6666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="5"/>
+    <col min="6" max="6" width="22.3333333333333" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.88888888888889" style="5"/>
+    <col min="9" max="9" width="10.4444444444444" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13" style="5" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="5" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2638,62 +2804,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:11">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:4">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:4">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2712,23 +2878,23 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="37.6666666666667" style="9" customWidth="1"/>
-    <col min="3" max="3" width="50" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.89166666666667" style="9"/>
-    <col min="6" max="6" width="22.3333333333333" style="9" customWidth="1"/>
-    <col min="7" max="8" width="8.89166666666667" style="9"/>
-    <col min="9" max="9" width="10.4416666666667" style="9" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13" style="9" customWidth="1"/>
-    <col min="12" max="13" width="15.225" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.89166666666667" style="9"/>
+    <col min="1" max="1" width="17.4444444444444" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.6666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="5"/>
+    <col min="6" max="6" width="22.3333333333333" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.88888888888889" style="5"/>
+    <col min="9" max="9" width="10.4444444444444" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13" style="5" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="5" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2769,48 +2935,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:11">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:4">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2829,23 +2995,23 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="38.4416666666667" style="9" customWidth="1"/>
-    <col min="3" max="3" width="50" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.89166666666667" style="9"/>
-    <col min="6" max="6" width="22.3333333333333" style="9" customWidth="1"/>
-    <col min="7" max="8" width="8.89166666666667" style="9"/>
-    <col min="9" max="9" width="10.4416666666667" style="9" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13" style="9" customWidth="1"/>
-    <col min="12" max="13" width="15.225" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.89166666666667" style="9"/>
+    <col min="1" max="1" width="17.4444444444444" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38.4444444444444" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="5"/>
+    <col min="6" max="6" width="22.3333333333333" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.88888888888889" style="5"/>
+    <col min="9" max="9" width="10.4444444444444" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13" style="5" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="5" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2886,131 +3052,131 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:11">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:11">
+      <c r="A3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:4">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:4">
+      <c r="A4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:11">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:11">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:4">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="5" customFormat="1" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:11">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="5" customFormat="1" spans="1:11">
+      <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:4">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="5" customFormat="1" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3029,20 +3195,20 @@
       <selection activeCell="B27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="76.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3055,216 +3221,216 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1" spans="1:13">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A5" s="9" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" ht="12" customHeight="1" spans="1:13">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="1" customFormat="1" ht="12" customHeight="1" spans="1:13">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A9" s="9" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="5" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A12" s="9" t="s">
+    <row r="12" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="5" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3283,20 +3449,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="76.775" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="76.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3309,216 +3475,216 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="5" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1" spans="1:13">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A5" s="9" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="5" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" ht="12" customHeight="1" spans="1:13">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="1" customFormat="1" ht="12" customHeight="1" spans="1:13">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A9" s="9" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="5" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A12" s="9" t="s">
+    <row r="12" s="5" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="5" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
